--- a/工地資料庫.xlsx
+++ b/工地資料庫.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j6309\Desktop\資策會\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mygit\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529C52A8-3060-4C67-A437-9C34B77D473A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599AD536-9509-4FB9-9438-289A1DDAFE49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{41C98609-A8F8-43E4-B581-04C439586E05}"/>
   </bookViews>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E077E0D7-E619-40F2-94DE-6C205650B6F7}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -537,6 +537,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
@@ -555,20 +569,6 @@
       </c>
       <c r="F9" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
